--- a/Business Plan Documents/Opening Day Balance Sheet.xlsx
+++ b/Business Plan Documents/Opening Day Balance Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\tentrep-yps\Business Plan Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z MINSYST - TENTREP\tentrep-yps\Business Plan Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5130"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="15345" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Day Balance Sheet" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Total Liabilities &amp; Net Worth</t>
   </si>
   <si>
-    <t>Enter your Company Name here</t>
-  </si>
-  <si>
     <t>Opening Day Balance Sheet</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Others (Specify)</t>
+  </si>
+  <si>
+    <t>Bridge Mobile Phils. Inc.</t>
   </si>
 </sst>
 </file>
@@ -160,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +218,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,13 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,7 +287,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -291,7 +296,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,8 +308,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,287 +326,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3848100" y="990600"/>
-          <a:ext cx="2790825" cy="8229600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Notes on Preparation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>: You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>A balance sheet shows the financial position of your company at a single moment in time; in this case, it will be as of opening day. Use your</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> Startup Expenses</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> spreadsheet to get the basic data for the balance sheet. Here are some accounting rules which will help you construct an accurate balance sheet: Assets are recorded at the lower of cost or current market value. Since your assets will be newly acquired, put them down at cost. If you have donated personal possessions to the business (e.g., a vehicle), enter them at market value.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Prepaid Expenses are items like insurance premiums which you have already paid but have not yet "used".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Other Assets are intangible items like patents and trademarks which are presumed to have economic value. It is very unlikely that you will have significant Other Assets as a new business. You should also include here items like lease and utility deposits.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Current Liabilities are any debts due within twelve months.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Trade payables and bank lines of credit are current liabilities. If you have a Long Term (multi year) Debt, then that portion of it which is payable over the next twelve months goes in "Current Portion of Long Term Debt". The remaining portion of that debt then goes in the "Bank Loans Payable (greater than 12 months)" section under Long Term Debt.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Owners' Equity is what is left when you subtract Liabilities from Assets. It will be less than you have actually spent on starting your business. That is because many of your pre-opening expenses do not result in ownership of assets which show on a balance sheet. For example, advertising, travel, and legal fees may be necessary, but they do not generate balance sheet assets.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,12 +608,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+      <c r="A2" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -913,7 +638,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -929,7 +654,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -937,7 +662,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -963,7 +688,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>160000</v>
@@ -971,7 +696,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
         <v>150000</v>
@@ -987,7 +712,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -995,7 +720,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1016,13 +741,13 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
@@ -1030,7 +755,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="15">
         <v>600000</v>
@@ -1038,7 +763,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
         <f>SUM(B23:B24)</f>
@@ -1096,7 +821,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -1112,7 +837,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -1138,7 +863,7 @@
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3">
         <v>800000</v>
@@ -1155,7 +880,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -1163,7 +888,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -1184,7 +909,7 @@
     </row>
     <row r="47" spans="1:2" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="16">
         <f>B38+B45</f>
@@ -1200,7 +925,7 @@
     </row>
     <row r="50" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="23">
         <f>B27-B47</f>
@@ -1245,7 +970,6 @@
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0" footer="0.5"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>